--- a/excels/check/1_50.xlsx
+++ b/excels/check/1_50.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13980" windowHeight="12705" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13980" windowHeight="12705" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="length change1" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="98">
   <si>
     <t>maze</t>
   </si>
@@ -499,7 +499,19 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -866,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView topLeftCell="G31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD46"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5113,8 +5125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView topLeftCell="G30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G84" sqref="A84:XFD85"/>
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13607,8 +13619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView topLeftCell="G27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74:L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -17290,6 +17302,9 @@
       <c r="F74">
         <v>1.0180017948150599</v>
       </c>
+      <c r="G74" t="s">
+        <v>73</v>
+      </c>
       <c r="H74">
         <v>3.3010015487670898</v>
       </c>
@@ -17340,6 +17355,9 @@
       <c r="F75">
         <v>0.90999913215637196</v>
       </c>
+      <c r="G75" t="s">
+        <v>74</v>
+      </c>
       <c r="H75">
         <v>2.8109996318817099</v>
       </c>
@@ -17390,6 +17408,9 @@
       <c r="F76">
         <v>0.839000463485717</v>
       </c>
+      <c r="G76" t="s">
+        <v>75</v>
+      </c>
       <c r="H76">
         <v>2.3489973545074401</v>
       </c>
@@ -17440,6 +17461,9 @@
       <c r="F77">
         <v>0.44101262092590299</v>
       </c>
+      <c r="G77" t="s">
+        <v>76</v>
+      </c>
       <c r="H77">
         <v>1.9739990234375</v>
       </c>
@@ -17490,6 +17514,9 @@
       <c r="F78">
         <v>0.87000179290771396</v>
       </c>
+      <c r="G78" t="s">
+        <v>77</v>
+      </c>
       <c r="H78">
         <v>1.4899990558624201</v>
       </c>
@@ -17540,6 +17567,9 @@
       <c r="F79">
         <v>5.0009996891021702</v>
       </c>
+      <c r="G79" t="s">
+        <v>78</v>
+      </c>
       <c r="H79">
         <v>5.0000021457672101</v>
       </c>
@@ -17590,6 +17620,9 @@
       <c r="F80">
         <v>5.0000026226043701</v>
       </c>
+      <c r="G80" t="s">
+        <v>79</v>
+      </c>
       <c r="H80">
         <v>5.00099778175354</v>
       </c>
@@ -17640,6 +17673,9 @@
       <c r="F81">
         <v>5.0010001659393302</v>
       </c>
+      <c r="G81" t="s">
+        <v>80</v>
+      </c>
       <c r="H81">
         <v>5.0000009536743102</v>
       </c>
@@ -17690,6 +17726,9 @@
       <c r="F82">
         <v>5.0000016689300502</v>
       </c>
+      <c r="G82" t="s">
+        <v>81</v>
+      </c>
       <c r="H82">
         <v>5.0000026226043701</v>
       </c>
@@ -17796,12 +17835,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H89">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:R82 A84">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="A84 A1:R82">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21994,12 +22033,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:R1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22011,7 +22050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -26192,7 +26231,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
